--- a/data/flymanager.xlsx
+++ b/data/flymanager.xlsx
@@ -592,7 +592,7 @@
     <t>BDSC_55134</t>
   </si>
   <si>
-    <t>w[1118]; P{y[+t7.7] w[+mC]=20XUAS-IVS-CsChrimson.mVenus}attP18; ; ;</t>
+    <t>w[1118] P{y[+t7.7] w[+mC]=20XUAS-IVS-CsChrimson.mVenus}attP18; ; ;</t>
   </si>
   <si>
     <t>UAS-Chrimson(XChr)</t>
